--- a/PCB_Design/PCB/Component List.xlsx
+++ b/PCB_Design/PCB/Component List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\course info\Research\Porto\Eurocarrier Board Project\Eurocarrier Board\carrier_board\carrier_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8A1995-E919-41AE-B9B8-9FC65E2FF777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C3D907-802D-43E3-85B8-9659D921A7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,12 +129,6 @@
     <t>RF Connectors / Coaxial Connectors SMA STRAIGHT PCB RECEPTACLE</t>
   </si>
   <si>
-    <t>81-GRM188R61E106KA3D</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 10UF 25V 10% 0603</t>
-  </si>
-  <si>
     <t>81-GRM188Z71C225KE3D</t>
   </si>
   <si>
@@ -223,6 +217,12 @@
   </si>
   <si>
     <t>Voltage References Adj Prec Shunt Reg 2.5V to 36V 4.5mV</t>
+  </si>
+  <si>
+    <t>187-CL31B106KAHNFNE</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 10uF+/-10% 25V X7R 3 1206</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -611,16 +611,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>0.127</v>
+        <v>9.4E-2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -631,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
@@ -680,7 +680,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -691,7 +691,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1">
         <v>100</v>
@@ -700,7 +700,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -720,7 +720,7 @@
         <v>1.75</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
@@ -740,7 +740,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -751,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
@@ -760,18 +760,18 @@
         <v>0.27400000000000002</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
@@ -780,7 +780,7 @@
         <v>0.27400000000000002</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -800,7 +800,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1">
         <v>10</v>
@@ -820,7 +820,7 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -831,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1">
         <v>100</v>
@@ -840,7 +840,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -851,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1">
         <v>100</v>
@@ -860,7 +860,7 @@
         <v>0.108</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -871,7 +871,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1">
         <v>100</v>
@@ -880,7 +880,7 @@
         <v>0.108</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -891,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1">
         <v>10</v>
@@ -900,7 +900,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -920,7 +920,7 @@
         <v>1.76</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -940,7 +940,7 @@
         <v>2.04</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -951,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1">
         <v>25</v>
@@ -960,7 +960,7 @@
         <v>2.38</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -980,7 +980,7 @@
         <v>0.25700000000000001</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/PCB_Design/PCB/Component List.xlsx
+++ b/PCB_Design/PCB/Component List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\course info\Research\Porto\Eurocarrier Board Project\Eurocarrier Board\carrier_board\carrier_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C3D907-802D-43E3-85B8-9659D921A7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D145521E-04E6-40A1-84AA-4E54B04680F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Part</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Amphenol 132134 vertical SMA connector</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 10uF+/-10% 25V X7R 3 1206</t>
+  </si>
+  <si>
+    <t>Cont/brd</t>
   </si>
 </sst>
 </file>
@@ -549,13 +549,13 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="10.26953125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.08984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="1"/>
     <col min="5" max="5" width="14.54296875" style="1" customWidth="1"/>
@@ -568,30 +568,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>25</v>
@@ -600,18 +600,18 @@
         <v>5.58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
@@ -620,18 +620,18 @@
         <v>9.4E-2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -640,18 +640,18 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
@@ -660,18 +660,18 @@
         <v>0.69</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
@@ -680,18 +680,18 @@
         <v>3.9E-2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>100</v>
@@ -700,18 +700,18 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -720,18 +720,18 @@
         <v>1.75</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
@@ -740,18 +740,18 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
@@ -760,18 +760,18 @@
         <v>0.27400000000000002</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
@@ -780,18 +780,18 @@
         <v>0.27400000000000002</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
@@ -800,18 +800,18 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1">
         <v>10</v>
@@ -820,18 +820,18 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1">
         <v>100</v>
@@ -840,18 +840,18 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1">
         <v>100</v>
@@ -860,18 +860,18 @@
         <v>0.108</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1">
         <v>100</v>
@@ -880,18 +880,18 @@
         <v>0.108</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1">
         <v>10</v>
@@ -900,18 +900,18 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1">
         <v>10</v>
@@ -920,18 +920,18 @@
         <v>1.76</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1">
         <v>10</v>
@@ -940,18 +940,18 @@
         <v>2.04</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1">
         <v>25</v>
@@ -960,18 +960,18 @@
         <v>2.38</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1">
         <v>10</v>
@@ -980,7 +980,7 @@
         <v>0.25700000000000001</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/PCB_Design/PCB/Component List.xlsx
+++ b/PCB_Design/PCB/Component List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\course info\Research\Porto\Eurocarrier Board Project\Eurocarrier Board\carrier_board\carrier_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D145521E-04E6-40A1-84AA-4E54B04680F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36011D78-1633-4DF5-B280-C314C97053BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,12 +168,6 @@
     <t>Thin Film Resistors - SMD 1/10W 10K ohm .1% 25ppm</t>
   </si>
   <si>
-    <t>Thin Film Resistors - SMD 12K ohm 0.1% 1/10W</t>
-  </si>
-  <si>
-    <t>603-RT0603BRD0712KL</t>
-  </si>
-  <si>
     <t>603-RT0603BRD07560KL</t>
   </si>
   <si>
@@ -223,6 +217,12 @@
   </si>
   <si>
     <t>Cont/brd</t>
+  </si>
+  <si>
+    <t>667-ERA-3AEB123V</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD 0603 1/10W 12Kohms</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
@@ -620,7 +620,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -800,7 +800,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -811,16 +811,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1">
         <v>10</v>
       </c>
       <c r="E13" s="1">
-        <v>0.26400000000000001</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -831,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1">
         <v>100</v>
@@ -840,7 +840,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -851,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1">
         <v>100</v>
@@ -860,7 +860,7 @@
         <v>0.108</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -871,7 +871,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1">
         <v>100</v>
@@ -880,7 +880,7 @@
         <v>0.108</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -891,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1">
         <v>10</v>
@@ -900,7 +900,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -920,7 +920,7 @@
         <v>1.76</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -940,7 +940,7 @@
         <v>2.04</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -951,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1">
         <v>25</v>
@@ -960,7 +960,7 @@
         <v>2.38</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -980,7 +980,7 @@
         <v>0.25700000000000001</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/PCB_Design/PCB/Component List.xlsx
+++ b/PCB_Design/PCB/Component List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\course info\Research\Porto\Eurocarrier Board Project\Eurocarrier Board\carrier_board\carrier_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36011D78-1633-4DF5-B280-C314C97053BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED06A2FC-2D04-442E-804C-2C536C6E439E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="19200" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Part</t>
   </si>
@@ -223,6 +223,21 @@
   </si>
   <si>
     <t>Thin Film Resistors - SMD 0603 1/10W 12Kohms</t>
+  </si>
+  <si>
+    <t>Check R1's value to see if 1k is appropriate</t>
+  </si>
+  <si>
+    <t>1 (originally 2)</t>
+  </si>
+  <si>
+    <t>300 Ohm capacitor (3.6V)</t>
+  </si>
+  <si>
+    <t>594-MCT06030C3000FP5</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD .1W 300ohms 1% 0603 50ppm Auto</t>
   </si>
 </sst>
 </file>
@@ -546,16 +561,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.08984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="1"/>
     <col min="5" max="5" width="14.54296875" style="1" customWidth="1"/>
@@ -787,8 +802,8 @@
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1">
-        <v>2</v>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -981,6 +996,31 @@
       </c>
       <c r="F21" s="1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/PCB_Design/PCB/Component List.xlsx
+++ b/PCB_Design/PCB/Component List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\course info\Research\Porto\Eurocarrier Board Project\Eurocarrier Board\carrier_board\carrier_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED06A2FC-2D04-442E-804C-2C536C6E439E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325F5218-48C9-4856-BFD1-42BAB7B3E2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="19200" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Part</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>Thin Film Resistors - SMD .1W 300ohms 1% 0603 50ppm Auto</t>
+  </si>
+  <si>
+    <t>649-75869-132LF</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings 8P DR VERT SHRD HDR</t>
   </si>
 </sst>
 </file>
@@ -561,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1023,6 +1029,23 @@
         <v>66</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="1">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PCB_Design/PCB/Component List.xlsx
+++ b/PCB_Design/PCB/Component List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\course info\Research\Porto\Eurocarrier Board Project\Eurocarrier Board\carrier_board\carrier_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325F5218-48C9-4856-BFD1-42BAB7B3E2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2BEF33-C769-4E5C-A548-1D8477785248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Part</t>
   </si>
@@ -66,15 +66,9 @@
     <t>100 nF capacitor (5V)</t>
   </si>
   <si>
-    <t xml:space="preserve">1000k Ferrite </t>
-  </si>
-  <si>
     <t>1 kOhm Resistor (2.5V)</t>
   </si>
   <si>
-    <t>10 kOhm Resistor (10V)</t>
-  </si>
-  <si>
     <t>12 kOhm Resistor (2.2V)</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>523-132134</t>
   </si>
   <si>
-    <t>279-RQ73C1J10KBTD</t>
-  </si>
-  <si>
     <t>757-TLP2767TPE</t>
   </si>
   <si>
@@ -192,9 +183,6 @@
     <t>Thin Film Resistors - SMD 1/10W 100 ohm 1% 50ppm</t>
   </si>
   <si>
-    <t xml:space="preserve"> Thin Film Resistors - SMD 1/10W 10K ohm 1% 50ppm</t>
-  </si>
-  <si>
     <t>High Speed Optocouplers Photo-IC 2.7 to 5.5V 3750Vrms 2.5mA 50Mb</t>
   </si>
   <si>
@@ -228,9 +216,6 @@
     <t>Check R1's value to see if 1k is appropriate</t>
   </si>
   <si>
-    <t>1 (originally 2)</t>
-  </si>
-  <si>
     <t>300 Ohm capacitor (3.6V)</t>
   </si>
   <si>
@@ -244,6 +229,18 @@
   </si>
   <si>
     <t>Headers &amp; Wire Housings 8P DR VERT SHRD HDR</t>
+  </si>
+  <si>
+    <t>603-RT0603BRD0720KL</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD 20K OHM .1% 25PPM</t>
+  </si>
+  <si>
+    <t>20 kOhm Resistor (10V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1k Ferrite </t>
   </si>
 </sst>
 </file>
@@ -570,7 +567,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C29" sqref="C28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -612,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
         <v>25</v>
@@ -621,7 +618,7 @@
         <v>5.58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -632,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
@@ -641,7 +638,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -652,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -661,7 +658,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -672,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
@@ -681,7 +678,7 @@
         <v>0.69</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -692,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
@@ -701,7 +698,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -712,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1">
         <v>100</v>
@@ -721,7 +718,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -732,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -741,18 +738,18 @@
         <v>1.75</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
@@ -761,18 +758,18 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
@@ -781,18 +778,18 @@
         <v>0.27400000000000002</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
@@ -801,18 +798,18 @@
         <v>0.27400000000000002</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
@@ -821,18 +818,18 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1">
         <v>10</v>
@@ -841,18 +838,18 @@
         <v>0.29899999999999999</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1">
         <v>100</v>
@@ -861,18 +858,18 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1">
         <v>100</v>
@@ -881,18 +878,18 @@
         <v>0.108</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1">
         <v>100</v>
@@ -901,7 +898,7 @@
         <v>0.108</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -912,7 +909,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1">
         <v>10</v>
@@ -921,7 +918,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -932,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1">
         <v>10</v>
@@ -941,7 +938,7 @@
         <v>1.76</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -952,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1">
         <v>10</v>
@@ -961,7 +958,7 @@
         <v>2.04</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -972,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1">
         <v>25</v>
@@ -981,7 +978,7 @@
         <v>2.38</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -992,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D21" s="1">
         <v>10</v>
@@ -1001,18 +998,18 @@
         <v>0.25700000000000001</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1">
         <v>10</v>
@@ -1021,23 +1018,23 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D24" s="1">
         <v>10</v>

--- a/PCB_Design/PCB/Component List.xlsx
+++ b/PCB_Design/PCB/Component List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\course info\Research\Porto\DDS_on Eurocard_rack\PCB\carrier_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5CCFB5-5189-4F58-B725-016C833491CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D2688E-9FF2-41D9-8D35-C7323986DE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Part</t>
   </si>
@@ -33,173 +33,218 @@
     <t>Amphenol 132134 vertical SMA connector</t>
   </si>
   <si>
+    <t>TLP2767</t>
+  </si>
+  <si>
+    <t>MIC5209-5.0YU</t>
+  </si>
+  <si>
+    <t>OPA340UA</t>
+  </si>
+  <si>
+    <t>AS431BNTR-G1</t>
+  </si>
+  <si>
+    <t>10 uF capacitor (15V)</t>
+  </si>
+  <si>
+    <t>2.2 uF capacitor (5V)</t>
+  </si>
+  <si>
+    <t>220 uF capacitor (15V)</t>
+  </si>
+  <si>
+    <t>470 pF capacitor (15V)</t>
+  </si>
+  <si>
+    <t>100 nF capacitor (5V)</t>
+  </si>
+  <si>
+    <t>12 kOhm Resistor (2.2V)</t>
+  </si>
+  <si>
+    <t>560 kOhm Resistor (2.3 / 7.7 V)</t>
+  </si>
+  <si>
+    <t>220 kOhm Resistor (2.75V)</t>
+  </si>
+  <si>
+    <t>100 kOhm Resistor （1.25V）</t>
+  </si>
+  <si>
+    <t>485-206</t>
+  </si>
+  <si>
+    <t>523-132134</t>
+  </si>
+  <si>
+    <t>757-TLP2767TPE</t>
+  </si>
+  <si>
+    <t>998-MIC5209-5.0YU</t>
+  </si>
+  <si>
+    <t>621-AS431BNTR-G1</t>
+  </si>
+  <si>
+    <t>581-AEF1010221M035R</t>
+  </si>
+  <si>
+    <t>81-GRM188Z71C225KE3D</t>
+  </si>
+  <si>
+    <t>791-0603B471J500CT</t>
+  </si>
+  <si>
+    <t>80-C0603C104J4RAC</t>
+  </si>
+  <si>
+    <t>81-BLM18KG102SN1D</t>
+  </si>
+  <si>
+    <t>603-RT0603BRD071KL</t>
+  </si>
+  <si>
+    <t>10 kOhm Resistor (3V low-tolerence)</t>
+  </si>
+  <si>
+    <t>603-RT0603BRD1310KL</t>
+  </si>
+  <si>
+    <t>603-RT0603BRD07560KL</t>
+  </si>
+  <si>
+    <t>603-RT0603BRD07220KL</t>
+  </si>
+  <si>
+    <t>603-RT0603BRD07100KL</t>
+  </si>
+  <si>
+    <t>603-RT0603FRE13100RL</t>
+  </si>
+  <si>
+    <t>OPA340UA/2K5</t>
+  </si>
+  <si>
+    <t>187-CL31B106KAHNFNE</t>
+  </si>
+  <si>
+    <t>Cont/brd</t>
+  </si>
+  <si>
+    <t>667-ERA-3AEB123V</t>
+  </si>
+  <si>
+    <t>594-MCT06030C3000FP5</t>
+  </si>
+  <si>
+    <t>603-RT0603BRD0720KL</t>
+  </si>
+  <si>
+    <t>20 kOhm Resistor (10V)</t>
+  </si>
+  <si>
+    <t>1 kOhm Resistor (2.5V)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1kOhm Ferrite </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teensy 4.1 or RPI Pico</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 Ohm Resistor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300 Ohm Resistor (3.6V)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 Ohm Resistor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT0603FRE0720RLCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIP SWITCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD Pinheader 2x3 1.27mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDD01H0SB1R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S9012E-03-ND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Part Number)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carlos' DDS Board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Through hole pinheaders/sockets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	96 Position Din Connector Header Right Angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86094647113755ELF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NHD-C0216CZ-FSW-FBW-3V3 (with extra mounting board and 0805 150 Ohm resistor, 2 x 1 uF 0805b capacitors)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 Position Rectangular Receptacle Connector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71600-006LF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC16K25-201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rotational Encoder with press</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMA Cable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135111-01-06.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB Micro ccable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>206  Adafruit Industries cable ensemble</t>
-  </si>
-  <si>
-    <t>TLP2767</t>
-  </si>
-  <si>
-    <t>MIC5209-5.0YU</t>
-  </si>
-  <si>
-    <t>OPA340UA</t>
-  </si>
-  <si>
-    <t>AS431BNTR-G1</t>
-  </si>
-  <si>
-    <t>10 uF capacitor (15V)</t>
-  </si>
-  <si>
-    <t>2.2 uF capacitor (5V)</t>
-  </si>
-  <si>
-    <t>220 uF capacitor (15V)</t>
-  </si>
-  <si>
-    <t>470 pF capacitor (15V)</t>
-  </si>
-  <si>
-    <t>100 nF capacitor (5V)</t>
-  </si>
-  <si>
-    <t>12 kOhm Resistor (2.2V)</t>
-  </si>
-  <si>
-    <t>560 kOhm Resistor (2.3 / 7.7 V)</t>
-  </si>
-  <si>
-    <t>220 kOhm Resistor (2.75V)</t>
-  </si>
-  <si>
-    <t>100 kOhm Resistor （1.25V）</t>
-  </si>
-  <si>
-    <t>485-206</t>
-  </si>
-  <si>
-    <t>523-132134</t>
-  </si>
-  <si>
-    <t>757-TLP2767TPE</t>
-  </si>
-  <si>
-    <t>998-MIC5209-5.0YU</t>
-  </si>
-  <si>
-    <t>621-AS431BNTR-G1</t>
-  </si>
-  <si>
-    <t>581-AEF1010221M035R</t>
-  </si>
-  <si>
-    <t>81-GRM188Z71C225KE3D</t>
-  </si>
-  <si>
-    <t>791-0603B471J500CT</t>
-  </si>
-  <si>
-    <t>80-C0603C104J4RAC</t>
-  </si>
-  <si>
-    <t>81-BLM18KG102SN1D</t>
-  </si>
-  <si>
-    <t>603-RT0603BRD071KL</t>
-  </si>
-  <si>
-    <t>10 kOhm Resistor (3V low-tolerence)</t>
-  </si>
-  <si>
-    <t>603-RT0603BRD1310KL</t>
-  </si>
-  <si>
-    <t>603-RT0603BRD07560KL</t>
-  </si>
-  <si>
-    <t>603-RT0603BRD07220KL</t>
-  </si>
-  <si>
-    <t>603-RT0603BRD07100KL</t>
-  </si>
-  <si>
-    <t>603-RT0603FRE13100RL</t>
-  </si>
-  <si>
-    <t>OPA340UA/2K5</t>
-  </si>
-  <si>
-    <t>187-CL31B106KAHNFNE</t>
-  </si>
-  <si>
-    <t>Cont/brd</t>
-  </si>
-  <si>
-    <t>667-ERA-3AEB123V</t>
-  </si>
-  <si>
-    <t>594-MCT06030C3000FP5</t>
-  </si>
-  <si>
-    <t>603-RT0603BRD0720KL</t>
-  </si>
-  <si>
-    <t>20 kOhm Resistor (10V)</t>
-  </si>
-  <si>
-    <t>1 kOhm Resistor (2.5V)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1kOhm Ferrite </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Teensy 4.1 or RPI Pico</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 Ohm Resistor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300 Ohm Resistor (3.6V)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 Ohm Resistor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RT0603FRE0720RLCT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIP SWITCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMD Pinheader 2x3 1.27mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDD01H0SB1R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S9012E-03-ND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Part Number)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carlos' DDS Board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Through hole pinheaders/sockets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3258 Adafruit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -553,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -567,281 +612,345 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
+      <c r="A26" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>52</v>
+      <c r="A27" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/PCB_Design/PCB/Component List.xlsx
+++ b/PCB_Design/PCB/Component List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\course info\Research\Porto\DDS_on Eurocard_rack\PCB\carrier_board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tujun\Documents\GitHub\DDS-Controller\PCB_Design\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D2688E-9FF2-41D9-8D35-C7323986DE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCA8882-A0A9-416F-A119-36B93E4BEE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Part</t>
   </si>
@@ -78,173 +78,210 @@
     <t>523-132134</t>
   </si>
   <si>
+    <t>998-MIC5209-5.0YU</t>
+  </si>
+  <si>
+    <t>621-AS431BNTR-G1</t>
+  </si>
+  <si>
+    <t>581-AEF1010221M035R</t>
+  </si>
+  <si>
+    <t>81-GRM188Z71C225KE3D</t>
+  </si>
+  <si>
+    <t>791-0603B471J500CT</t>
+  </si>
+  <si>
+    <t>80-C0603C104J4RAC</t>
+  </si>
+  <si>
+    <t>81-BLM18KG102SN1D</t>
+  </si>
+  <si>
+    <t>603-RT0603BRD071KL</t>
+  </si>
+  <si>
+    <t>10 kOhm Resistor (3V low-tolerence)</t>
+  </si>
+  <si>
+    <t>603-RT0603BRD1310KL</t>
+  </si>
+  <si>
+    <t>603-RT0603BRD07560KL</t>
+  </si>
+  <si>
+    <t>603-RT0603BRD07220KL</t>
+  </si>
+  <si>
+    <t>603-RT0603BRD07100KL</t>
+  </si>
+  <si>
+    <t>603-RT0603FRE13100RL</t>
+  </si>
+  <si>
+    <t>OPA340UA/2K5</t>
+  </si>
+  <si>
+    <t>187-CL31B106KAHNFNE</t>
+  </si>
+  <si>
+    <t>Cont/brd</t>
+  </si>
+  <si>
+    <t>667-ERA-3AEB123V</t>
+  </si>
+  <si>
+    <t>594-MCT06030C3000FP5</t>
+  </si>
+  <si>
+    <t>603-RT0603BRD0720KL</t>
+  </si>
+  <si>
+    <t>20 kOhm Resistor (10V)</t>
+  </si>
+  <si>
+    <t>1 kOhm Resistor (2.5V)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1kOhm Ferrite </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teensy 4.1 or RPI Pico</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 Ohm Resistor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300 Ohm Resistor (3.6V)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 Ohm Resistor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT0603FRE0720RLCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIP SWITCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD Pinheader 2x3 1.27mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDD01H0SB1R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S9012E-03-ND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Part Number)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carlos' DDS Board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	96 Position Din Connector Header Right Angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86094647113755ELF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NHD-C0216CZ-FSW-FBW-3V3 (with extra mounting board and 0805 150 Ohm resistor, 2 x 1 uF 0805b capacitors)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 Position Rectangular Receptacle Connector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC16K25-201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rotational Encoder with press</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMA Cable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135111-01-06.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB Micro ccable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206  Adafruit Industries cable ensemble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3258 Adafruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need this time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heat Sinks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71600-008LF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 for R, 5 for C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Through hole 6-pin headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Through hole 2x4-pin headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD 2x4-pin headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G800LQ302018HR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Through hole 24-pin headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>801-87-024-10-001101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Through hole 24-pin sockets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>757-TLP2767TPE</t>
-  </si>
-  <si>
-    <t>998-MIC5209-5.0YU</t>
-  </si>
-  <si>
-    <t>621-AS431BNTR-G1</t>
-  </si>
-  <si>
-    <t>581-AEF1010221M035R</t>
-  </si>
-  <si>
-    <t>81-GRM188Z71C225KE3D</t>
-  </si>
-  <si>
-    <t>791-0603B471J500CT</t>
-  </si>
-  <si>
-    <t>80-C0603C104J4RAC</t>
-  </si>
-  <si>
-    <t>81-BLM18KG102SN1D</t>
-  </si>
-  <si>
-    <t>603-RT0603BRD071KL</t>
-  </si>
-  <si>
-    <t>10 kOhm Resistor (3V low-tolerence)</t>
-  </si>
-  <si>
-    <t>603-RT0603BRD1310KL</t>
-  </si>
-  <si>
-    <t>603-RT0603BRD07560KL</t>
-  </si>
-  <si>
-    <t>603-RT0603BRD07220KL</t>
-  </si>
-  <si>
-    <t>603-RT0603BRD07100KL</t>
-  </si>
-  <si>
-    <t>603-RT0603FRE13100RL</t>
-  </si>
-  <si>
-    <t>OPA340UA/2K5</t>
-  </si>
-  <si>
-    <t>187-CL31B106KAHNFNE</t>
-  </si>
-  <si>
-    <t>Cont/brd</t>
-  </si>
-  <si>
-    <t>667-ERA-3AEB123V</t>
-  </si>
-  <si>
-    <t>594-MCT06030C3000FP5</t>
-  </si>
-  <si>
-    <t>603-RT0603BRD0720KL</t>
-  </si>
-  <si>
-    <t>20 kOhm Resistor (10V)</t>
-  </si>
-  <si>
-    <t>1 kOhm Resistor (2.5V)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1kOhm Ferrite </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Teensy 4.1 or RPI Pico</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 Ohm Resistor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300 Ohm Resistor (3.6V)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 Ohm Resistor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RT0603FRE0720RLCT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIP SWITCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMD Pinheader 2x3 1.27mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDD01H0SB1R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S9012E-03-ND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Part Number)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carlos' DDS Board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Through hole pinheaders/sockets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	96 Position Din Connector Header Right Angle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>86094647113755ELF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHD-C0216CZ-FSW-FBW-3V3 (with extra mounting board and 0805 150 Ohm resistor, 2 x 1 uF 0805b capacitors)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 Position Rectangular Receptacle Connector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71600-006LF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REC16K25-201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rotational Encoder with press</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMA Cable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135111-01-06.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB Micro ccable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>206  Adafruit Industries cable ensemble</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3258 Adafruit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -587,24 +624,27 @@
     <col min="1" max="1" width="62.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="28.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="107" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -614,8 +654,11 @@
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -623,10 +666,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -634,10 +680,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -645,10 +694,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -656,10 +708,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -667,12 +722,15 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -680,52 +738,67 @@
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -733,10 +806,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -744,10 +820,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -755,10 +834,13 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -766,43 +848,55 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -810,10 +904,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -821,10 +918,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -832,10 +932,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -843,114 +946,214 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>61302411121</v>
+      </c>
+      <c r="D36" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>61300821121</v>
+      </c>
+      <c r="D38" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>61030821121</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
